--- a/Income/AFL_inc.xlsx
+++ b/Income/AFL_inc.xlsx
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.4499</v>
+        <v>0.4356</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0.408</v>
@@ -1774,7 +1774,7 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.2288</v>
+        <v>0.2315</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0.1987</v>
@@ -1913,10 +1913,10 @@
         <v>0.1789</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.1798</v>
+        <v>0.1799</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.1992</v>
+        <v>0.1993</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.1883</v>
@@ -2034,13 +2034,13 @@
         <v>0.2158</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.211</v>
+        <v>0.2111</v>
       </c>
       <c r="E16" s="0" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F16" s="0" t="n">
         <v>0.1349</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>0.1348</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0.1481</v>
@@ -2155,7 +2155,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.0</v>
+        <v>0.2586</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.269</v>
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.0</v>
+        <v>0.2837</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0.2535</v>
@@ -3298,7 +3298,7 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.0</v>
+        <v>0.2586</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0.269</v>
